--- a/others/Investment/THS/AutoTrade/scripts/组合/组合持仓_历史调仓_今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/scripts/组合/组合持仓_历史调仓_今天调仓.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="持仓汇总表" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="策略收益统计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="持仓汇总表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="策略收益统计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>-4.61%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -542,11 +542,11 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.694</v>
+        <v>0.666</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>-3.90%</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>-4.61%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,11 +597,11 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.694</v>
+        <v>0.666</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>-3.90%</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.91%</t>
+          <t>-9.97%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -652,11 +652,11 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.77</v>
+        <v>0.763</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-7.96%</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.91%</t>
+          <t>-9.97%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,11 +707,11 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.77</v>
+        <v>0.763</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-7.96%</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.51%</t>
+          <t>-9.56%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -762,11 +762,11 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.858</v>
+        <v>0.85</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-6.93%</t>
+          <t>-7.91%</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-8.51%</t>
+          <t>-9.56%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.858</v>
+        <v>0.85</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-6.93%</t>
+          <t>-7.91%</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -839,44 +839,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>159718</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.899</v>
+        <v>0.724</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.13%</t>
+          <t>-1.59%</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>港股医药ETF</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>49.42%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>49.42%</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.916</v>
+        <v>0.704</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>-2.76%</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -894,44 +894,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>159718</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.899</v>
+        <v>0.724</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.13%</t>
+          <t>-1.59%</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>港股医药ETF</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>49.42%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>49.42%</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.916</v>
+        <v>0.704</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>-2.76%</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -944,49 +944,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>龙头驾到ETF</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159316</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.024</v>
+        <v>0.8587</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>2.88%</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>恒生创新药ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>49.84%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>49.84%</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1.021</v>
+        <v>0.905</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>5.40%</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -999,55 +999,165 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>热点追击ETF</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8587</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.88%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>港股创新药ETF</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>49.84%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>49.84%</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>5.40%</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>龙头驾到ETF</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>159316</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1.024</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-0.34%</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="C12" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>36</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>恒生创新药ETF</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-0.29%</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-0.20%</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>龙头驾到ETF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159316</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>36</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>恒生创新药ETF</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-0.20%</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1104,13 +1214,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.14</v>
+        <v>-3.9</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1125,7 +1235,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7</v>
+        <v>-7.96</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1146,7 +1256,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.93</v>
+        <v>-7.91</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1167,13 +1277,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.89</v>
+        <v>2.640000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1188,7 +1298,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.29</v>
+        <v>-0.2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1210,10 +1320,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
